--- a/biology/Zoologie/Alburnus_nicaeensis/Alburnus_nicaeensis.xlsx
+++ b/biology/Zoologie/Alburnus_nicaeensis/Alburnus_nicaeensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus nicaeensis (Iznik shemaya[4] en anglais) est une espèce de poisson d'eau douce de la famille des Cyprinidae désormais éteinte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus nicaeensis (Iznik shemaya en anglais) est une espèce de poisson d'eau douce de la famille des Cyprinidae désormais éteinte.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus nicaeensis était endémique de Turquie où cette espèce se rencontrait dans le bassin du lac d'Iznik. Malgré de nombreuses recherches effectuées entre 1996 et 2003, aucun spécimen n'a pu être trouvé[5]. Son extinction serait due à la mise en concurrence avec Atherina boyeri, poisson importé pour accroitre la productivité halieutique du lac[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus nicaeensis était endémique de Turquie où cette espèce se rencontrait dans le bassin du lac d'Iznik. Malgré de nombreuses recherches effectuées entre 1996 et 2003, aucun spécimen n'a pu être trouvé. Son extinction serait due à la mise en concurrence avec Atherina boyeri, poisson importé pour accroitre la productivité halieutique du lac.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus nicaeensis est de 146 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus nicaeensis est de 146 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de nicae et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Nicaea, Nicée en français, l'ancien nom de la ville d'İznik.
 </t>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Battalgil, 1941 : Türkiyenin tatlı su balikları. Les poissons des eaux douces de la Turquie. Revue de la Faculté des Sciences de l'Université d'Instanbul, sér. B - Sciences Naturelles, vol. 6, n. 1-2 p. 170-186[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Battalgil, 1941 : Türkiyenin tatlı su balikları. Les poissons des eaux douces de la Turquie. Revue de la Faculté des Sciences de l'Université d'Instanbul, sér. B - Sciences Naturelles, vol. 6, n. 1-2 p. 170-186.</t>
         </is>
       </c>
     </row>
